--- a/data/income_statement/2digits/size/73_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/73_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>73-Advertising and market research</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>73-Advertising and market research</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>838849731.0375999</v>
+        <v>6367597.018610001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1527483230.34089</v>
+        <v>8092777.016100001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>30019825.37181</v>
+        <v>6574623.24926</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>10238774.4746</v>
+        <v>6822114.102049999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6841190.010489999</v>
+        <v>6593128.51981</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6851355.18037</v>
+        <v>6763611.60513</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8281802.115799999</v>
+        <v>8205296.174280001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9488274.655649999</v>
+        <v>9387341.456</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10388577.89078</v>
+        <v>10056944.37548</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8685253.08151</v>
+        <v>8230909.16953</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11382874.53084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11082344.18948</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13067005.156</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>838634225.1975801</v>
+        <v>6154795.41554</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1527231118.92282</v>
+        <v>7842252.82131</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>29707980.05769</v>
+        <v>6266244.4151</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9919306.634109998</v>
+        <v>6522131.769880001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6558725.892540001</v>
+        <v>6321727.937910001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6549808.824309999</v>
+        <v>6493731.887509999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7906649.92632</v>
+        <v>7852918.38433</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9027102.01499</v>
+        <v>8966554.228420001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>9850916.590329999</v>
+        <v>9598306.511859998</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8248476.10712</v>
+        <v>7794193.446810001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10868436.21697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10568020.661</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12522578.55</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>79097.21510000002</v>
@@ -1034,25 +950,25 @@
         <v>91610.56026</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>145605.30782</v>
+        <v>144867.0117</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>93441.75603999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>81494.14798000001</v>
+        <v>77912.81653</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>69971.30780000001</v>
+        <v>57610.45177</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>96481.00617000001</v>
+        <v>95658.80012</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>90186.22374000002</v>
+        <v>87622.62597999998</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>104428.67651</v>
+        <v>80359.71402000001</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>113173.55743</v>
@@ -1060,155 +976,175 @@
       <c r="M7" s="48" t="n">
         <v>152978.25657</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>117823.165</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>136408.62492</v>
+        <v>133704.38797</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>160500.85781</v>
+        <v>158913.63453</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>166240.0063</v>
+        <v>163511.82246</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>226026.08445</v>
+        <v>206540.57613</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>200969.96997</v>
+        <v>193487.76537</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>231575.04826</v>
+        <v>212269.26585</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>278671.18331</v>
+        <v>256718.98983</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>370986.4169199999</v>
+        <v>333164.6016000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>433232.62394</v>
+        <v>378278.1496</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>323603.41696</v>
+        <v>323542.16529</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>361460.0573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>361345.27191</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>426603.441</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>834819950.4554399</v>
+        <v>2412275.95148</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1521827502.62451</v>
+        <v>2524978.02321</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>23614851.57473</v>
+        <v>253267.25712</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3581320.39557</v>
+        <v>263003.0139</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>539357.7836999999</v>
+        <v>224126.3254</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>287763.90323</v>
+        <v>285319.03208</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>343995.34554</v>
+        <v>340709.63454</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>496110.26167</v>
+        <v>480968.10499</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>393639.33313</v>
+        <v>383977.0555899999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>366224.31608</v>
+        <v>351984.87312</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>402980.9358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>402717.60878</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>426628.36</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>177540.51384</v>
+        <v>176468.09209</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>83828.323</v>
+        <v>81486.18491</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>133108.41116</v>
+        <v>130485.3636</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>173981.54876</v>
+        <v>172558.02065</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>143148.18119</v>
+        <v>144436.63177</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>202972.59357</v>
+        <v>201836.85943</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>259080.888</v>
+        <v>259886.07058</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>404977.34997</v>
+        <v>393530.99675</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>307663.85817</v>
+        <v>301731.52982</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>287738.42652</v>
+        <v>276282.92367</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>306781.2925399999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>306517.96552</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>315387.925</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>834600081.7560799</v>
+        <v>2193479.67387</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1521677452.53101</v>
+        <v>2377270.0678</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>23386803.73107</v>
+        <v>27842.46102</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3340434.42827</v>
+        <v>23540.57471</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>338122.25897</v>
+        <v>21606.17033</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>41979.15377</v>
+        <v>40670.01676</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>36038.12981000001</v>
+        <v>31947.23623</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>34775.39514</v>
+        <v>31079.59168</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>33658.05068</v>
+        <v>29928.10149</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>18620.87472</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>44128.43824</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>38986.013</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>42328.18552000001</v>
@@ -1235,7 +1176,7 @@
         <v>66904.41854</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>58087.34354</v>
+        <v>58083.52329999999</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>42812.15589</v>
@@ -1250,94 +1191,109 @@
         <v>52317.42428</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>59865.01484</v>
+        <v>57081.07473</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>52071.20502</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>72254.42200000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4029780.58216</v>
+        <v>3955321.06713</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5655727.71638</v>
+        <v>5567798.99289</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6404973.79708</v>
+        <v>6321355.992140001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6657454.07903</v>
+        <v>6559111.08815</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6301832.22679</v>
+        <v>6369002.19441</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6563591.277139999</v>
+        <v>6478292.57305</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7937806.770260001</v>
+        <v>7864586.53974</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8992164.393980002</v>
+        <v>8906373.35101</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9994938.55765</v>
+        <v>9672967.31989</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8319028.76543</v>
+        <v>7878924.29641</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>10979893.59504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10679626.5807</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12640376.796</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3544275.62182</v>
+        <v>3480805.23786</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4916034.24306</v>
+        <v>4847971.74013</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5714319.37083</v>
+        <v>5647979.32307</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5862652.75058</v>
+        <v>5801697.92746</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5515225.82429</v>
+        <v>5590609.61095</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5782030.951080001</v>
+        <v>5740822.24833</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7037516.00055</v>
+        <v>7001732.585510001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8058510.42029</v>
+        <v>8007468.67901</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8895375.29881</v>
+        <v>8681222.25777</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7859807.2736</v>
+        <v>7450116.760780001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10195541.09215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9913229.905450001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11787455.319</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>287748.28765</v>
@@ -1358,13 +1314,13 @@
         <v>410589.03756</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>47385.86359</v>
+        <v>19235.64418</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>43824.10846</v>
+        <v>22556.02513</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>53778.57527</v>
+        <v>48932.82206000001</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>10489.91126</v>
@@ -1372,101 +1328,116 @@
       <c r="M15" s="48" t="n">
         <v>11575.57477</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>1022.989</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2960.40934</v>
+        <v>2577.79737</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>27252.35741</v>
+        <v>27102.95492</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>22587.15516</v>
+        <v>22586.55079</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>107915.75734</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>32272.09923</v>
+        <v>11005.57859</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>11769.07668</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>617229.6804900001</v>
+        <v>617113.8328</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>13111.47064</v>
+        <v>10849.10527</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>364381.39306</v>
+        <v>262613.3496</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>118556.29992</v>
+        <v>9084.47258</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>300108.2717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>174911.29439</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>413596.919</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2824698.09714</v>
+        <v>2761610.32515</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4240909.95589</v>
+        <v>4176507.9577</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4924462.013</v>
+        <v>4858122.569610001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>5380619.14067</v>
+        <v>5320953.58277</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5476215.25192</v>
+        <v>5572865.55922</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5359270.15724</v>
+        <v>5318061.45449</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6371820.176480001</v>
+        <v>6364558.19551</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7998991.709559999</v>
+        <v>7971495.416979999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8475397.408500001</v>
+        <v>8367858.16413</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7728953.26989</v>
+        <v>7428734.58441</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>9862935.41344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>9705821.204050001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11344075.33</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>428868.82769</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>428489.96766</v>
+        <v>424978.86541</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>678379.08205</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>298952.72031</v>
+        <v>297663.4550900001</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>286.99031</v>
@@ -1475,10 +1446,10 @@
         <v>402.6796</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1080.27999</v>
+        <v>824.9130200000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2583.13163</v>
+        <v>2568.13163</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1817.92198</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>20921.83224</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>28760.081</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>485504.96034</v>
+        <v>474515.82927</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>739693.4733200001</v>
+        <v>719827.2527599999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>690654.42625</v>
+        <v>673376.6690699999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>794801.32845</v>
+        <v>757413.16069</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>786606.4025</v>
+        <v>778392.58346</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>781560.32606</v>
+        <v>737470.32472</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>900290.7697099999</v>
+        <v>862853.95423</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>933653.97369</v>
+        <v>898904.672</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1099563.25884</v>
+        <v>991745.06212</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>459221.4918300001</v>
+        <v>428807.53563</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>784352.50289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>766396.67525</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>852921.477</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>372837.48258</v>
+        <v>356917.18066</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>544398.31828</v>
+        <v>528873.23648</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>626002.9231</v>
+        <v>594392.3218800001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>753165.5610400001</v>
+        <v>720409.71286</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>602997.27675</v>
+        <v>578121.1194099999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>632651.3368599999</v>
+        <v>601338.9143600001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>781773.36951</v>
+        <v>756920.2392199999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>876667.39047</v>
+        <v>852967.75868</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1036923.64818</v>
+        <v>954037.3047400001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>777477.11499</v>
+        <v>731958.93998</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>967009.10599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>960624.66002</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>896449.794</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>630.8238</v>
@@ -1595,10 +1581,10 @@
         <v>816.9106999999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>956.3267</v>
+        <v>937.78382</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3693.14059</v>
+        <v>3607.79567</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>788.8531700000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1114.493</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>153198.52089</v>
+        <v>151364.84047</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>272961.46542</v>
+        <v>270793.13561</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>252978.87163</v>
+        <v>249218.3488</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>238676.93238</v>
+        <v>227236.08868</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>168947.53282</v>
+        <v>167755.85992</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>161314.71904</v>
+        <v>147014.96277</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>176111.10253</v>
+        <v>176235.66068</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>188458.71056</v>
+        <v>187338.80075</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>245081.7523</v>
+        <v>230867.2758</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>197837.61604</v>
+        <v>179717.85681</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>241155.48351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>237754.91045</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>248666.558</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>219008.13789</v>
+        <v>204921.51639</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>270950.33161</v>
+        <v>257593.57962</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>372432.89574</v>
+        <v>344582.81735</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>513794.47125</v>
+        <v>492479.46677</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>433240.79999</v>
+        <v>409556.3155499999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>470397.3200700001</v>
+        <v>453384.65384</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>604845.3562799999</v>
+        <v>579867.66784</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>687252.3532100001</v>
+        <v>664691.17411</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>788148.75529</v>
+        <v>719562.23327</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>579639.49895</v>
+        <v>552241.08317</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>725064.7693100001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>722080.8964</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>646668.743</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>112667.47776</v>
+        <v>117598.64861</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>195295.15504</v>
+        <v>190954.01628</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>64651.50315</v>
+        <v>78984.34719</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>41635.76740999999</v>
+        <v>37003.44783</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>183609.12575</v>
+        <v>200271.46405</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>148908.9892</v>
+        <v>136131.41036</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>118517.4002</v>
+        <v>105933.71501</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>56986.58322</v>
+        <v>45936.91332</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>62639.61066000001</v>
+        <v>37707.75738</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-318255.62316</v>
+        <v>-303151.40435</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-182656.6031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-194227.98477</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-43528.317</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>160845.63358</v>
+        <v>140103.77772</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>145126.31156</v>
+        <v>127160.04771</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>258949.61449</v>
+        <v>230795.44697</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>251713.72768</v>
+        <v>225767.06736</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>301977.4695</v>
+        <v>296834.72717</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>304388.94319</v>
+        <v>294052.81652</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>300548.92277</v>
+        <v>282954.7701</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>474961.1497</v>
+        <v>387715.13203</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>490684.71651</v>
+        <v>408331.5475</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1065097.88429</v>
+        <v>1042308.55702</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3198313.69239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3191453.69757</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2410395.67</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1092.41145</v>
@@ -1775,25 +1786,25 @@
         <v>1683.15782</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>9626.529769999999</v>
+        <v>896.75031</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>17125.93091</v>
+        <v>2482.00208</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3330.11929</v>
+        <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>4109.69444</v>
+        <v>50.22944</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4350.89025</v>
+        <v>2037.67025</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>1152.41549</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5308.14248</v>
+        <v>4196.01748</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>797.85</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>20804.04809</v>
+        <v>18119.78263</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>3021.2136</v>
+        <v>2295.77932</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>4514.30942</v>
@@ -1829,61 +1845,71 @@
         <v>7927.541929999999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>122812.55318</v>
+        <v>12312.55318</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>27153.07131</v>
+        <v>2653.07131</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>2159.28229</v>
+        <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>2790.31222</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>18427.6744</v>
+        <v>15970.97725</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>18752.80397</v>
+        <v>14832.12396</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>36185.24642</v>
+        <v>34472.83053</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>62185.03663</v>
+        <v>59495.13087</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>43418.69476000001</v>
+        <v>45062.49190000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>67902.16056</v>
+        <v>67104.25367000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>71962.06788</v>
+        <v>67656.19266</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>68233.52093000001</v>
+        <v>67140.73319</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>71015.01578999999</v>
+        <v>67428.36798000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>74478.23173999999</v>
+        <v>72284.61806000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>88969.96708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>87592.75364</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>102872.163</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.59535</v>
@@ -1895,7 +1921,7 @@
         <v>9655.177439999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>0.03214</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>42.80818</v>
@@ -1918,74 +1944,84 @@
       <c r="M29" s="48" t="n">
         <v>63019.05529</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>80325.731</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2917.94906</v>
+        <v>2756.53072</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2663.73222</v>
+        <v>2552.5924</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6711.628559999999</v>
+        <v>5970.95748</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2757.81842</v>
+        <v>2720.96542</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2006.83423</v>
+        <v>1760.86293</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6820.01336</v>
+        <v>6426.574030000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3451.24619</v>
+        <v>3192.54665</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3927.06796</v>
+        <v>3746.45066</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3410.89789</v>
+        <v>2387.32688</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1964.17441</v>
+        <v>1840.48341</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>2802.75539</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2087.189</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>682.0754800000001</v>
+        <v>672.48346</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>187.96718</v>
+        <v>186.80977</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>463.45076</v>
+        <v>438.20494</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1073.36399</v>
+        <v>1067.50671</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>297.4810900000001</v>
+        <v>297.20341</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>263.67314</v>
+        <v>263.62494</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>2390.09844</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3870.81644</v>
+        <v>3870.17691</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>5407.880730000001</v>
@@ -1996,62 +2032,72 @@
       <c r="M31" s="48" t="n">
         <v>7783.20825</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>326.478</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>83555.87548999999</v>
+        <v>73965.88419999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>90119.65673</v>
+        <v>82994.50288000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>139473.06416</v>
+        <v>137516.87838</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>93063.93461000001</v>
+        <v>88606.33396999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>150159.69264</v>
+        <v>148783.59537</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>130260.22303</v>
+        <v>125371.90538</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>138304.96029</v>
+        <v>128207.87754</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>204111.66888</v>
+        <v>194257.13426</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>282062.7891000001</v>
+        <v>237347.21652</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>592171.3605600001</v>
+        <v>590709.52449</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2708368.95915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2706309.53826</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1823695.014</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>3239.35476</v>
+        <v>3183.90257</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1966.98323</v>
+        <v>1697.62124</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>5001.0428</v>
+        <v>4887.41271</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>2232.8314</v>
+        <v>2111.96618</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>73.49253</v>
@@ -2063,7 +2109,7 @@
         <v>873.49805</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>31.93856</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>481.69688</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>29643.95262</v>
+        <v>23859.51321</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>26680.35791</v>
+        <v>20867.02142</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>47319.16516</v>
+        <v>32442.92576</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>71848.38551000001</v>
+        <v>67856.76806</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>67542.78636</v>
+        <v>65708.71243</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>85692.12200999999</v>
+        <v>85495.17241</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>70187.22599000001</v>
+        <v>69567.95083</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>70608.54012000001</v>
+        <v>104959.16308</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>96190.48396000001</v>
+        <v>88775.23134999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>329339.25613</v>
+        <v>312488.3519</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>324579.4350100001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>321156.07452</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>400291.245</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>106867.2531</v>
+        <v>91863.73146000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>104691.00243</v>
+        <v>97824.7503</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>156089.90306</v>
+        <v>149369.99394</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>183475.0452</v>
+        <v>173068.94136</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>249035.46788</v>
+        <v>250222.97563</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>169171.29116</v>
+        <v>165820.07771</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>177702.60312</v>
+        <v>170803.59537</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>180592.86769</v>
+        <v>163489.92113</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>226093.72114</v>
+        <v>195807.86964</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>885979.66223</v>
+        <v>880803.6468800001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2884211.51729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2880854.6221</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1986111.862</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>12447.75829</v>
+        <v>11173.40976</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>18344.56705</v>
+        <v>14896.57849</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>26509.54428</v>
+        <v>21665.61285</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>20296.45114</v>
+        <v>17163.0129</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>22034.08919</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>29590.32155</v>
+        <v>27577.71588</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>37336.96047999999</v>
+        <v>35989.19983</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>29154.58718</v>
+        <v>29075.23074</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>32063.41851</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>139147.04795</v>
+        <v>137348.18207</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>133269.83932</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>138645.257</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>13268.37548</v>
+        <v>12576.60614</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8253.51525</v>
+        <v>7578.95304</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>17379.05428</v>
+        <v>16879.9264</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>10328.01478</v>
+        <v>9806.351119999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>13330.36006</v>
+        <v>14651.72668</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>24598.72481</v>
+        <v>24395.31227</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>30134.65046</v>
+        <v>29743.25862</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>21432.46290999999</v>
+        <v>21269.37703</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>14277.54846</v>
+        <v>13505.79169</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>10887.28879</v>
+        <v>9189.708990000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>19178.13245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>19172.81227</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>9499.709000000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>33.00709</v>
+        <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>30.44749</v>
@@ -2308,65 +2384,75 @@
       <c r="M39" s="48" t="n">
         <v>36.308</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>68572.85311</v>
+        <v>58292.41348999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>59159.4523</v>
+        <v>56557.10588</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>92749.08590000001</v>
+        <v>91709.77032000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>94044.64531000001</v>
+        <v>87344.59542</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>203746.78417</v>
+        <v>201921.57117</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>102351.34086</v>
+        <v>101216.14562</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>91055.28181999999</v>
+        <v>86943.19683</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>116678.57019</v>
+        <v>99843.76815999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>169069.50705</v>
+        <v>139561.97492</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>711594.96715</v>
+        <v>710172.0890200001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2703877.66308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2703084.24192</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1810079.134</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>4374.73359</v>
+        <v>4260.20874</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>2422.65322</v>
+        <v>2370.29846</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>2638.44446</v>
+        <v>2616.43239</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>2253.19496</v>
+        <v>2248.55446</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>86.49824000000001</v>
+        <v>1777.85237</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>929.1969</v>
@@ -2375,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>6.03423</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,23 +2516,28 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>8203.53263</v>
+        <v>5561.09333</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>16477.80752</v>
+        <v>16421.81443</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>16783.32665</v>
+        <v>16467.80449</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6656.396369999999</v>
+        <v>6610.08482</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>9837.736220000001</v>
@@ -2450,103 +2546,118 @@
         <v>7409.43004</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6834.242310000001</v>
+        <v>5786.47204</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>7987.65541</v>
+        <v>7955.918970000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>10683.24712</v>
+        <v>10676.68452</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>19965.91565</v>
+        <v>19709.22411</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>27849.57444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>25291.42059</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>27887.762</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>68974.66065000001</v>
+        <v>65607.67598</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>78504.09443000001</v>
+        <v>72837.61506</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>135462.77398</v>
+        <v>128329.14641</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>104558.87353</v>
+        <v>93764.56322</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>247400.27714</v>
+        <v>238815.15835</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>242119.66562</v>
+        <v>222011.5321</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>384226.63701</v>
+        <v>356619.55719</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>280425.91073</v>
+        <v>241771.76281</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>434034.15165</v>
+        <v>372526.8616300001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>395410.29963</v>
+        <v>362228.96798</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>341025.78526</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>322735.89164</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>510546.139</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>68297.92193</v>
+        <v>64930.93726000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>77159.83598</v>
+        <v>71493.35661</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>135220.83773</v>
+        <v>128087.21016</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>104165.7901</v>
+        <v>93371.47979</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>243569.50186</v>
+        <v>234984.38307</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>242093.67881</v>
+        <v>221985.54529</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>384207.5756</v>
+        <v>356600.4957800001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>280372.62789</v>
+        <v>241718.47997</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>434026.3632</v>
+        <v>372519.07318</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>395307.8231</v>
+        <v>362126.49145</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>341025.78526</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>322735.89164</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>510546.139</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>676.7387199999999</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>97671.19759000001</v>
+        <v>100231.01889</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>157226.36974</v>
+        <v>147451.69863</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>32048.4406</v>
+        <v>32080.65381</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>5315.576360000003</v>
+        <v>-4062.989390000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-10849.14977</v>
+        <v>8068.057239999995</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>42006.97561</v>
+        <v>42352.61707</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-142862.91716</v>
+        <v>-138534.66745</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>70928.95450000002</v>
+        <v>28390.36141</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-106803.54562</v>
+        <v>-122295.42639</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-534547.7007299999</v>
+        <v>-503875.46219</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-209580.21326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-206364.80094</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-129790.648</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>11906.76156</v>
+        <v>11177.37136</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>16554.22148</v>
+        <v>15150.308</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>13198.57261</v>
+        <v>9650.50575</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11448.0824</v>
+        <v>11224.85903</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>15745.19369</v>
+        <v>15349.95193</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>23183.60771</v>
+        <v>16861.59792</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>51849.0378</v>
+        <v>25398.38156</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>38747.63758</v>
+        <v>25570.33997</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>37587.82943999999</v>
+        <v>36130.7844</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>56744.14463</v>
+        <v>53133.884</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>43281.09647</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>43275.28993</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>44771.69</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>360.27748</v>
@@ -2672,10 +2798,10 @@
         <v>481.69432</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>613.14854</v>
+        <v>361.13805</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>372.23174</v>
+        <v>365.77932</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>466.30346</v>
@@ -2684,103 +2810,118 @@
         <v>713.12051</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>593.86054</v>
+        <v>580.56614</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1020.91052</v>
+        <v>805.74553</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3261.89546</v>
+        <v>3249.45561</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>451.07343</v>
+        <v>136.22655</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>290.0959</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>6685.955</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>11546.48408</v>
+        <v>10817.09388</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>16072.52716</v>
+        <v>14668.61368</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>12585.42407</v>
+        <v>9289.367699999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11075.85066</v>
+        <v>10859.07971</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>15278.89023</v>
+        <v>14883.64847</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>22470.4872</v>
+        <v>16148.47741</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>51255.17726</v>
+        <v>24817.81542</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>37726.72706</v>
+        <v>24764.59444</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>34325.93398</v>
+        <v>32881.32879</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>56293.07120000001</v>
+        <v>52997.65745000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>42991.00057</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>42985.19402999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>38085.735</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>33646.97664</v>
+        <v>15294.83129</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>13705.28282</v>
+        <v>12239.7369</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>39714.37414</v>
+        <v>38557.64742</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>15949.56096</v>
+        <v>14662.76967</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>32067.09116</v>
+        <v>33646.53646</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>70292.43784999999</v>
+        <v>65672.55101</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>23853.65878</v>
+        <v>21355.36659</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>58335.36884</v>
+        <v>55923.43728</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>51388.50023999999</v>
+        <v>46100.85726</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>15316.92181</v>
+        <v>13798.25554</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>17810.95146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>16830.8796</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>22391.084</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2792,13 +2933,13 @@
         <v>17.24711</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>0.30808</v>
+        <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1.83171</v>
+        <v>0.04326</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>32.70421</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>243.84111</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>79.248</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1119.87745</v>
+        <v>882.1463100000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>692.9057300000001</v>
+        <v>621.7058500000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5636.38897</v>
+        <v>5397.396320000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3678.94284</v>
+        <v>3285.62125</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5019.93213</v>
+        <v>4987.68667</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>4736.18833</v>
+        <v>4722.302559999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3980.45444</v>
+        <v>3441.53084</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4902.257019999999</v>
+        <v>2862.88064</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3999.15861</v>
+        <v>3872.54881</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2810.35858</v>
+        <v>2411.01943</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>2096.43444</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>3834.657</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>32527.09919</v>
+        <v>14412.68498</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>13012.37709</v>
+        <v>11618.03105</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>34060.73806</v>
+        <v>33143.00399</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>12270.31004</v>
+        <v>11377.14842</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>27047.15903</v>
+        <v>28658.84979</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>65554.41781</v>
+        <v>60950.20519</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>19840.50013</v>
+        <v>17881.13154</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>53343.71882</v>
+        <v>52971.16364</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>47291.736</v>
+        <v>42130.70282</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>12467.71602</v>
+        <v>11348.3889</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>15470.67591</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>14490.60405</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>18477.179</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>75930.98251</v>
+        <v>96113.55896000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>160075.3084</v>
+        <v>150362.26973</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5532.63907</v>
+        <v>3173.512140000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>814.0978000000007</v>
+        <v>-7500.900030000002</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-27171.04724</v>
+        <v>-10228.52729</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-5101.854530000001</v>
+        <v>-6458.336019999996</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-114867.53814</v>
+        <v>-134491.65248</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>51341.22323999999</v>
+        <v>-1962.735899999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-120604.21642</v>
+        <v>-132265.49925</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-493120.47791</v>
+        <v>-464539.83373</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-184110.06825</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-179920.39061</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-107410.042</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>21263.35783</v>
+        <v>20126.63363</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>38212.54201</v>
+        <v>34659.51998</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>46712.34919</v>
+        <v>46436.16940999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>48917.70559</v>
+        <v>47474.83472</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>55151.95857</v>
+        <v>57248.5733</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>44724.62542</v>
+        <v>44207.20028</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>49610.21029</v>
+        <v>48725.70157</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>50820.63309999999</v>
+        <v>53364.70186</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>52507.12195</v>
+        <v>51664.86717</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>34585.35219999999</v>
+        <v>32887.1737</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>40109.82055</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>38668.99437</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>81872.63099999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>54667.62467999999</v>
+        <v>75986.92533</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>121862.76639</v>
+        <v>115702.74975</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-41179.71012</v>
+        <v>-43262.65727</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-48103.60779</v>
+        <v>-54975.73475</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-82323.00581</v>
+        <v>-67477.10059</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-49826.47995</v>
+        <v>-50665.5363</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-164477.74843</v>
+        <v>-183217.35405</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>520.5901399999857</v>
+        <v>-55327.43776000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-173111.33837</v>
+        <v>-183930.36642</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-527705.83011</v>
+        <v>-497427.00743</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-224219.8888</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-218589.38498</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-189282.673</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>70</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>78</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>64</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>67</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>76</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>76</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>85</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>96</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>74</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>78</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>91</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>88</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>105</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>62</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>